--- a/indigo_app/tests/xlsx_exporter/commencements_passive_later_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/commencements_passive_later_output_expected.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -31,10 +31,7 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subtype (blank for Acts)</t>
+    <t xml:space="preserve">subtype</t>
   </si>
   <si>
     <t xml:space="preserve">number</t>
@@ -55,10 +52,10 @@
     <t xml:space="preserve">publication_date</t>
   </si>
   <si>
-    <t xml:space="preserve">commencement_date (main)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stub (✔)</t>
+    <t xml:space="preserve">commencement_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stub</t>
   </si>
   <si>
     <t xml:space="preserve">taxonomy</t>
@@ -291,8 +288,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,402 +318,402 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:9"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="n">
+      <c r="P2" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="AB2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="K3" s="2" t="n">
+        <v>43987</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>43987</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="AB3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>43987</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="AB4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="AB5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="V6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>43987</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="V7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="AB8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="V9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>44075</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="AC2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="AB9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="n">
-        <v>43831</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>43987</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>43987</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="AC3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="n">
-        <v>43831</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>43987</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="AC4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="n">
-        <v>43831</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="P5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="AC5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="n">
-        <v>43983</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="W6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>43987</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE6" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="n">
-        <v>43983</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="W7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE7" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="n">
-        <v>43983</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="AC8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE8" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="n">
-        <v>44044</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="W9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="1" t="n">
-        <v>44075</v>
-      </c>
-      <c r="AC9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE9" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/indigo_app/tests/xlsx_exporter/commencements_passive_later_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/commencements_passive_later_output_expected.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robley/code/work/indigo/indigo_app/tests/xlsx_exporter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB72FA4-62BE-2D47-AF88-BCEFCE0C3D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25640" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Works" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>country</t>
   </si>
@@ -173,9 +179,6 @@
   </si>
   <si>
     <t>/akn/za/act/2020/4 - Commenced_by only</t>
-  </si>
-  <si>
-    <t>(unknown)</t>
   </si>
   <si>
     <t>Commencement notice 1</t>
@@ -211,14 +214,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,15 +254,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -299,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,9 +350,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,6 +402,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,14 +595,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="21.33203125" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -680,7 +741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -715,7 +776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -744,7 +805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -763,8 +824,8 @@
       <c r="O5" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>53</v>
+      <c r="P5" s="2">
+        <v>2958101</v>
       </c>
       <c r="AB5" t="s">
         <v>36</v>
@@ -776,15 +837,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -808,21 +869,21 @@
         <v>36</v>
       </c>
       <c r="AC6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
         <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -839,28 +900,28 @@
       <c r="V7" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>53</v>
+      <c r="W7" s="2">
+        <v>2958101</v>
       </c>
       <c r="AB7" t="s">
         <v>36</v>
       </c>
       <c r="AC7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -872,21 +933,21 @@
         <v>36</v>
       </c>
       <c r="AC8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD8" t="s">
         <v>59</v>
       </c>
-      <c r="AD8" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -910,7 +971,7 @@
         <v>36</v>
       </c>
       <c r="AC9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD9" t="s">
         <v>39</v>

--- a/indigo_app/tests/xlsx_exporter/commencements_passive_later_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/commencements_passive_later_output_expected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robley/code/work/indigo/indigo_app/tests/xlsx_exporter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB72FA4-62BE-2D47-AF88-BCEFCE0C3D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990220FF-557C-9A48-BFD2-3A6ACE46D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="25640" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>country</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>/akn/za/act/2020/7</t>
+  </si>
+  <si>
+    <t>principal</t>
   </si>
 </sst>
 </file>
@@ -596,19 +599,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="24" max="24" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,70 +646,73 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -725,23 +731,24 @@
       <c r="K2" s="1">
         <v>44075</v>
       </c>
-      <c r="O2" t="s">
+      <c r="L2" s="1"/>
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>44075</v>
       </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
       <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -760,23 +767,24 @@
       <c r="K3" s="1">
         <v>43987</v>
       </c>
-      <c r="O3" t="s">
+      <c r="L3" s="1"/>
+      <c r="P3" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>43987</v>
       </c>
-      <c r="AB3" t="s">
-        <v>36</v>
-      </c>
       <c r="AC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -795,17 +803,18 @@
       <c r="K4" s="1">
         <v>43987</v>
       </c>
-      <c r="AB4" t="s">
-        <v>36</v>
-      </c>
+      <c r="L4" s="1"/>
       <c r="AC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" t="s">
         <v>47</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -821,23 +830,23 @@
       <c r="J5" s="1">
         <v>43831</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>2958101</v>
       </c>
-      <c r="AB5" t="s">
-        <v>36</v>
-      </c>
       <c r="AC5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -856,26 +865,27 @@
       <c r="K6" s="1">
         <v>44013</v>
       </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>43987</v>
       </c>
-      <c r="AB6" t="s">
-        <v>36</v>
-      </c>
       <c r="AC6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" t="s">
         <v>55</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -894,26 +904,27 @@
       <c r="K7" s="1">
         <v>44013</v>
       </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>2958101</v>
       </c>
-      <c r="AB7" t="s">
-        <v>36</v>
-      </c>
       <c r="AC7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -929,17 +940,17 @@
       <c r="J8" s="1">
         <v>43983</v>
       </c>
-      <c r="AB8" t="s">
-        <v>36</v>
-      </c>
       <c r="AC8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="s">
         <v>58</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -958,22 +969,23 @@
       <c r="K9" s="1">
         <v>44013</v>
       </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>44075</v>
       </c>
-      <c r="AB9" t="s">
-        <v>36</v>
-      </c>
       <c r="AC9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>39</v>
       </c>
     </row>

--- a/indigo_app/tests/xlsx_exporter/commencements_passive_later_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/commencements_passive_later_output_expected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robley/code/work/indigo/indigo_app/tests/xlsx_exporter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/coding/laws.africa/indigo/indigo_app/tests/xlsx_exporter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990220FF-557C-9A48-BFD2-3A6ACE46D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A15422-28F1-2F41-96B8-CAAF5760343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="25640" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>stub</t>
   </si>
   <si>
-    <t>taxonomy</t>
-  </si>
-  <si>
     <t>primary_work</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>principal</t>
+  </si>
+  <si>
+    <t>taxonomy_topic</t>
   </si>
 </sst>
 </file>
@@ -279,9 +279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,9 +319,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,26 +354,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,26 +389,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +568,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,84 +612,84 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
       </c>
       <c r="J2" s="1">
         <v>43831</v>
@@ -733,33 +699,33 @@
       </c>
       <c r="L2" s="1"/>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="1">
         <v>44075</v>
       </c>
       <c r="AC2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>37</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1">
         <v>43831</v>
@@ -769,33 +735,33 @@
       </c>
       <c r="L3" s="1"/>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="1">
         <v>43987</v>
       </c>
       <c r="AC3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" t="s">
         <v>42</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1">
         <v>43831</v>
@@ -805,59 +771,59 @@
       </c>
       <c r="L4" s="1"/>
       <c r="AC4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" t="s">
         <v>47</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1">
         <v>43831</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="2">
         <v>2958101</v>
       </c>
       <c r="AC5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" t="s">
         <v>51</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1">
         <v>43983</v>
@@ -867,36 +833,36 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X6" s="1">
         <v>43987</v>
       </c>
       <c r="AC6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1">
         <v>43983</v>
@@ -906,62 +872,62 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X7" s="2">
         <v>2958101</v>
       </c>
       <c r="AC7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1">
         <v>43983</v>
       </c>
       <c r="AC8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE8" t="s">
         <v>58</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1">
         <v>44044</v>
@@ -971,22 +937,22 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X9" s="1">
         <v>44075</v>
       </c>
       <c r="AC9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
